--- a/node_modules/write-excel-file/test-output/test-schema-header-style-old.xlsx
+++ b/node_modules/write-excel-file/test-output/test-schema-header-style-old.xlsx
@@ -35,9 +35,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="100" formatCode="#,##0.00"/>
-    <numFmt numFmtId="101" formatCode="mm/dd/yyyy"/>
+  <numFmts count="3">
+    <numFmt numFmtId="100" formatCode="@"/>
+    <numFmt numFmtId="101" formatCode="#,##0.00"/>
+    <numFmt numFmtId="102" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -82,13 +83,13 @@
     <xf fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1">
+    <xf numFmtId="100" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="100" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="101" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="101" applyNumberFormat="1"/>
+    <xf numFmtId="102" applyNumberFormat="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -96,7 +97,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
@@ -123,7 +123,7 @@
         <v>1800</v>
       </c>
       <c r="C2" s="4">
-        <v>45556.54950616898</v>
+        <v>45706.51544939815</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -137,7 +137,7 @@
         <v>2600.5</v>
       </c>
       <c r="C3" s="4">
-        <v>45556.54950616898</v>
+        <v>45706.51544939815</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
